--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/nlp-satisfaction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/Masterarbeit-Code/nlp-satisfaction/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF09F52F-B08D-3849-831A-41B70A2108F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F483BF-351A-904E-8BF0-C4601AC19403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="6660" windowWidth="33600" windowHeight="19220" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
+    <workbookView xWindow="35940" yWindow="8940" windowWidth="33600" windowHeight="19220" activeTab="2" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
   </bookViews>
   <sheets>
     <sheet name="fragecodes" sheetId="1" r:id="rId1"/>
     <sheet name="labled" sheetId="2" r:id="rId2"/>
+    <sheet name="invites" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fragecodes!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
   <si>
     <t>wime_unzuf_sf_txt</t>
   </si>
@@ -90,9 +91,6 @@
     <t>u_klassencode</t>
   </si>
   <si>
-    <t>u_ga</t>
-  </si>
-  <si>
     <t>S_AB3_HTA</t>
   </si>
   <si>
@@ -265,13 +263,19 @@
   </si>
   <si>
     <t>wime_oes_fahrt</t>
+  </si>
+  <si>
+    <t>yearmonth</t>
+  </si>
+  <si>
+    <t>Anzahl Einladungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,6 +287,19 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,9 +325,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1667862C-172B-1041-8AC2-F41203EF45EF}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,24 +658,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -675,10 +694,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -686,10 +705,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,10 +727,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,21 +782,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,10 +815,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,10 +826,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -818,10 +837,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -829,10 +848,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,10 +859,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,10 +870,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -862,10 +881,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -873,10 +892,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,10 +903,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -895,32 +914,32 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,10 +947,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -942,7 +961,7 @@
         <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -950,10 +969,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -961,10 +980,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -972,10 +991,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -983,10 +1002,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -994,10 +1013,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1005,10 +1024,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1019,7 +1038,7 @@
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1027,10 +1046,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1038,10 +1057,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1049,10 +1068,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1060,10 +1079,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1071,10 +1090,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1082,10 +1101,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1093,21 +1112,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1128,233 +1136,233 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1362,13 +1370,411 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76DEDB6-88B8-E048-9543-65DF58472E86}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>43466</v>
+      </c>
+      <c r="B2">
+        <v>98702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>43497</v>
+      </c>
+      <c r="B3">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>43525</v>
+      </c>
+      <c r="B4">
+        <v>89195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>43556</v>
+      </c>
+      <c r="B5">
+        <v>95995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>43586</v>
+      </c>
+      <c r="B6">
+        <v>96976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>43617</v>
+      </c>
+      <c r="B7">
+        <v>89030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B8">
+        <v>96093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B9">
+        <v>94564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>43709</v>
+      </c>
+      <c r="B10">
+        <v>81106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>43739</v>
+      </c>
+      <c r="B11">
+        <v>98533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>43770</v>
+      </c>
+      <c r="B12">
+        <v>85636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>43800</v>
+      </c>
+      <c r="B13">
+        <v>62260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>43831</v>
+      </c>
+      <c r="B14">
+        <v>80379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B15">
+        <v>71945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>43891</v>
+      </c>
+      <c r="B16">
+        <v>42605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B19">
+        <v>78652</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B20">
+        <v>88898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>44044</v>
+      </c>
+      <c r="B21">
+        <v>80506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B22">
+        <v>74453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B23">
+        <v>81561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>44136</v>
+      </c>
+      <c r="B24">
+        <v>62864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>44166</v>
+      </c>
+      <c r="B25">
+        <v>46575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B26">
+        <v>60990</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B27">
+        <v>56717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B28">
+        <v>63058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B29">
+        <v>58703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B30">
+        <v>60419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B31">
+        <v>59479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B32">
+        <v>59906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>44409</v>
+      </c>
+      <c r="B33">
+        <v>61496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B34">
+        <v>59417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>44470</v>
+      </c>
+      <c r="B35">
+        <v>60933</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B36">
+        <v>60439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B37">
+        <v>48990</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>44562</v>
+      </c>
+      <c r="B38">
+        <v>59015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B39">
+        <v>55877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B40">
+        <v>62680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B41">
+        <v>62373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>44682</v>
+      </c>
+      <c r="B42">
+        <v>63759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B43">
+        <v>63948</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B44">
+        <v>122915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B45">
+        <v>122993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B46">
+        <v>118960</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44835</v>
+      </c>
+      <c r="B47">
+        <v>101919</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>44896</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/Masterarbeit-Code/nlp-satisfaction/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F483BF-351A-904E-8BF0-C4601AC19403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04E097A-DF4A-3D49-9EA0-7E88126F5FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="8940" windowWidth="33600" windowHeight="19220" activeTab="2" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
+    <workbookView xWindow="35920" yWindow="8940" windowWidth="33600" windowHeight="19220" activeTab="2" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
   </bookViews>
   <sheets>
     <sheet name="fragecodes" sheetId="1" r:id="rId1"/>
@@ -1386,7 +1386,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominik/Documents/Masterarbeit-Code/nlp-satisfaction/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Repos/github.com/DominikFin/nlp-satisfaction/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04E097A-DF4A-3D49-9EA0-7E88126F5FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50225900-F69E-B948-AAFE-24987B33599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35920" yWindow="8940" windowWidth="33600" windowHeight="19220" activeTab="2" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
+    <workbookView xWindow="24140" yWindow="8780" windowWidth="33600" windowHeight="19220" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
   </bookViews>
   <sheets>
     <sheet name="fragecodes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -348,7 +347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1667862C-172B-1041-8AC2-F41203EF45EF}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -1385,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76DEDB6-88B8-E048-9543-65DF58472E86}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1760,12 +1759,15 @@
         <v>44835</v>
       </c>
       <c r="B47">
-        <v>101919</v>
+        <v>118960</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44866</v>
+      </c>
+      <c r="B48">
+        <v>117247</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Repos/github.com/DominikFin/nlp-satisfaction/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50225900-F69E-B948-AAFE-24987B33599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D0358-FCFB-F34C-9D63-16094E5D797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24140" yWindow="8780" windowWidth="33600" windowHeight="19220" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
   </bookViews>
   <sheets>
     <sheet name="fragecodes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
   <si>
     <t>wime_unzuf_sf_txt</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Anzahl Einladungen</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -304,12 +307,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -324,11 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +656,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,7 +967,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
@@ -968,7 +978,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>70</v>
@@ -1034,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
@@ -1045,7 +1055,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -1384,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76DEDB6-88B8-E048-9543-65DF58472E86}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1770,9 +1780,12 @@
         <v>117247</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>44896</v>
+      </c>
+      <c r="B49" s="4">
+        <v>80000</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Repos/github.com/DominikFin/nlp-satisfaction/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D0358-FCFB-F34C-9D63-16094E5D797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25DB4A1-F41C-8447-82B8-6D7A719B2172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="2" xr2:uid="{200F5F93-4F8B-1441-AC51-6C611B6C2579}"/>
   </bookViews>
   <sheets>
     <sheet name="fragecodes" sheetId="1" r:id="rId1"/>
@@ -307,18 +307,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -333,12 +327,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -645,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1667862C-172B-1041-8AC2-F41203EF45EF}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1394,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76DEDB6-88B8-E048-9543-65DF58472E86}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1784,8 +1777,8 @@
       <c r="A49" s="3">
         <v>44896</v>
       </c>
-      <c r="B49" s="4">
-        <v>80000</v>
+      <c r="B49">
+        <v>79901</v>
       </c>
     </row>
   </sheetData>
